--- a/GestorReceitas/Janeiro/CAF.xlsx
+++ b/GestorReceitas/Janeiro/CAF.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="185">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lourenzo Pandolpho Pimentel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~</t>
   </si>
   <si>
     <t xml:space="preserve">Lucas Pereira José e Silva</t>
@@ -688,12 +691,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH161"/>
+  <dimension ref="A1:AH207"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H145" activeCellId="1" sqref="I71:L71 H145"/>
+      <selection pane="bottomLeft" activeCell="L79" activeCellId="0" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -701,14 +704,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="10" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="17" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="21" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="4" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="14" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="21" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="28" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="30" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -859,19 +863,34 @@
       <c r="C5" s="1" t="n">
         <v>289953316</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="n">
+      <c r="P5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -885,6 +904,9 @@
       <c r="C6" s="1" t="n">
         <v>300813775</v>
       </c>
+      <c r="AF6" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -896,40 +918,46 @@
       <c r="C7" s="1" t="n">
         <v>307498190</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,6 +982,36 @@
       <c r="C9" s="1" t="n">
         <v>285029908</v>
       </c>
+      <c r="P9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -965,40 +1023,64 @@
       <c r="C10" s="1" t="n">
         <v>294314008</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1034,19 +1116,25 @@
       <c r="C13" s="1" t="n">
         <v>303197951</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="J13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1060,40 +1148,52 @@
       <c r="C14" s="1" t="n">
         <v>289996570</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1107,6 +1207,9 @@
       <c r="C15" s="1" t="n">
         <v>293154252</v>
       </c>
+      <c r="Z15" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -1173,31 +1276,43 @@
       <c r="C21" s="1" t="n">
         <v>306150352</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1255,34 +1370,43 @@
       <c r="C26" s="1" t="n">
         <v>286101386</v>
       </c>
-      <c r="E26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1307,37 +1431,34 @@
       <c r="C28" s="1" t="n">
         <v>291209890</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="T28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1373,40 +1494,49 @@
       <c r="C31" s="1" t="n">
         <v>304866814</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1" t="n">
+      <c r="Q31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,31 +1572,55 @@
       <c r="C34" s="1" t="n">
         <v>306021153</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="J34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P34" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,25 +1634,64 @@
       <c r="C35" s="1" t="n">
         <v>294437452</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N35" s="1" t="n">
+      <c r="M35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1523,6 +1716,12 @@
       <c r="C37" s="1" t="n">
         <v>287455114</v>
       </c>
+      <c r="R37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -1534,25 +1733,25 @@
       <c r="C38" s="1" t="n">
         <v>290483948</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1" t="n">
+      <c r="P38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1566,7 +1765,16 @@
       <c r="C39" s="1" t="n">
         <v>303001879</v>
       </c>
-      <c r="I39" s="1" t="n">
+      <c r="W39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1591,40 +1799,64 @@
       <c r="C41" s="1" t="n">
         <v>287525422</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,10 +1870,7 @@
       <c r="C42" s="1" t="n">
         <v>286049732</v>
       </c>
-      <c r="F42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="n">
+      <c r="I42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,9 +1895,6 @@
       <c r="C44" s="1" t="n">
         <v>298794284</v>
       </c>
-      <c r="L44" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -1735,40 +1961,64 @@
       <c r="C50" s="1" t="n">
         <v>304289027</v>
       </c>
-      <c r="E50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1782,34 +2032,58 @@
       <c r="C51" s="1" t="n">
         <v>295962968</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="1" t="n">
+      <c r="Q51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1900,22 +2174,28 @@
       <c r="C59" s="1" t="n">
         <v>294086803</v>
       </c>
-      <c r="E59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" s="1" t="n">
+      <c r="K59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,19 +2209,40 @@
       <c r="C60" s="1" t="n">
         <v>293669155</v>
       </c>
-      <c r="F60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="n">
+      <c r="K60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1" t="n">
+      <c r="P60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1955,13 +2256,46 @@
       <c r="C61" s="1" t="n">
         <v>294138170</v>
       </c>
-      <c r="E61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1" t="n">
+      <c r="P61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,31 +2342,43 @@
       <c r="C65" s="1" t="n">
         <v>306151197</v>
       </c>
-      <c r="E65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" s="1" t="n">
+      <c r="Q65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2079,33 +2425,6 @@
       <c r="C69" s="1" t="n">
         <v>300369077</v>
       </c>
-      <c r="E69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O69" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -2128,37 +2447,40 @@
       <c r="C71" s="1" t="n">
         <v>284684813</v>
       </c>
-      <c r="E71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O71" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P71" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2172,28 +2494,61 @@
       <c r="C72" s="1" t="n">
         <v>303976047</v>
       </c>
-      <c r="E72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N72" s="1" t="n">
+      <c r="J72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,10 +2573,13 @@
       <c r="C74" s="1" t="n">
         <v>319224732</v>
       </c>
+      <c r="AA74" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>48</v>
@@ -2232,7 +2590,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>35</v>
@@ -2240,25 +2598,70 @@
       <c r="C76" s="1" t="n">
         <v>305889605</v>
       </c>
-      <c r="E76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>48</v>
@@ -2266,43 +2669,61 @@
       <c r="C77" s="1" t="n">
         <v>325261180</v>
       </c>
-      <c r="F77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE77" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>39</v>
@@ -2310,28 +2731,52 @@
       <c r="C78" s="1" t="n">
         <v>284925683</v>
       </c>
-      <c r="E78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1" t="n">
+      <c r="P78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>41</v>
@@ -2342,7 +2787,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>50</v>
@@ -2350,31 +2795,10 @@
       <c r="C80" s="1" t="n">
         <v>289567882</v>
       </c>
-      <c r="E80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P80" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>50</v>
@@ -2385,7 +2809,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>37</v>
@@ -2396,7 +2820,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>50</v>
@@ -2404,16 +2828,7 @@
       <c r="C83" s="1" t="n">
         <v>290677599</v>
       </c>
-      <c r="E83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" s="1" t="n">
+      <c r="K83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L83" s="1" t="n">
@@ -2422,9 +2837,6 @@
       <c r="M83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N83" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P83" s="1" t="n">
         <v>1</v>
       </c>
@@ -2432,12 +2844,39 @@
         <v>1</v>
       </c>
       <c r="T83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>48</v>
@@ -2445,16 +2884,13 @@
       <c r="C84" s="1" t="n">
         <v>298794098</v>
       </c>
-      <c r="L84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" s="1" t="n">
+      <c r="AE84" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>50</v>
@@ -2465,7 +2901,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>48</v>
@@ -2476,7 +2912,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>39</v>
@@ -2484,34 +2920,67 @@
       <c r="C87" s="1" t="n">
         <v>285654349</v>
       </c>
-      <c r="E87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N87" s="1" t="n">
+      <c r="J87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>45</v>
@@ -2522,7 +2991,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>37</v>
@@ -2530,43 +2999,40 @@
       <c r="C89" s="1" t="n">
         <v>298838125</v>
       </c>
-      <c r="E89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P89" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>41</v>
@@ -2574,43 +3040,67 @@
       <c r="C90" s="1" t="n">
         <v>290072883</v>
       </c>
-      <c r="F90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>48</v>
@@ -2618,46 +3108,67 @@
       <c r="C91" s="1" t="n">
         <v>300252730</v>
       </c>
-      <c r="E91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>35</v>
@@ -2668,7 +3179,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>39</v>
@@ -2679,7 +3190,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>45</v>
@@ -2687,22 +3198,13 @@
       <c r="C94" s="1" t="n">
         <v>292656050</v>
       </c>
-      <c r="I94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P94" s="1" t="n">
+      <c r="AG94" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>41</v>
@@ -2712,19 +3214,49 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="A96" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>299528812</v>
       </c>
+      <c r="I96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>35</v>
@@ -2735,7 +3267,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>50</v>
@@ -2746,7 +3278,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>35</v>
@@ -2754,46 +3286,70 @@
       <c r="C99" s="1" t="n">
         <v>298986752</v>
       </c>
-      <c r="E99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>45</v>
@@ -2804,7 +3360,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>37</v>
@@ -2815,7 +3371,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>35</v>
@@ -2823,43 +3379,43 @@
       <c r="C102" s="1" t="n">
         <v>305302639</v>
       </c>
-      <c r="E102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S102" s="1" t="n">
+      <c r="Q102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>37</v>
@@ -2870,7 +3426,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>37</v>
@@ -2878,31 +3434,70 @@
       <c r="C104" s="1" t="n">
         <v>303728795</v>
       </c>
-      <c r="E104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I104" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH104" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>48</v>
@@ -2910,25 +3505,34 @@
       <c r="C105" s="1" t="n">
         <v>294329528</v>
       </c>
-      <c r="E105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" s="1" t="n">
+      <c r="J105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>35</v>
@@ -2936,10 +3540,22 @@
       <c r="C106" s="1" t="n">
         <v>300637730</v>
       </c>
+      <c r="J106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>35</v>
@@ -2950,7 +3566,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>37</v>
@@ -2958,40 +3574,40 @@
       <c r="C108" s="1" t="n">
         <v>298838222</v>
       </c>
-      <c r="G108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O108" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P108" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>41</v>
@@ -3002,7 +3618,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>50</v>
@@ -3010,46 +3626,70 @@
       <c r="C110" s="1" t="n">
         <v>289953944</v>
       </c>
-      <c r="E110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P110" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>37</v>
@@ -3057,10 +3697,19 @@
       <c r="C111" s="1" t="n">
         <v>299066630</v>
       </c>
+      <c r="K111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF111" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>35</v>
@@ -3068,46 +3717,64 @@
       <c r="C112" s="1" t="n">
         <v>306745321</v>
       </c>
-      <c r="E112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O112" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S112" s="1" t="n">
+      <c r="R112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>41</v>
@@ -3118,7 +3785,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>50</v>
@@ -3129,7 +3796,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>35</v>
@@ -3137,46 +3804,67 @@
       <c r="C115" s="1" t="n">
         <v>301633835</v>
       </c>
-      <c r="E115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>41</v>
@@ -3187,7 +3875,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>48</v>
@@ -3195,10 +3883,13 @@
       <c r="C117" s="1" t="n">
         <v>294209018</v>
       </c>
+      <c r="K117" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>37</v>
@@ -3209,7 +3900,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>35</v>
@@ -3217,28 +3908,31 @@
       <c r="C119" s="1" t="n">
         <v>304326852</v>
       </c>
-      <c r="E119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P119" s="1" t="n">
+      <c r="J119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y119" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>50</v>
@@ -3249,7 +3943,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>45</v>
@@ -3260,7 +3954,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>45</v>
@@ -3268,46 +3962,67 @@
       <c r="C122" s="1" t="n">
         <v>292550553</v>
       </c>
-      <c r="E122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P122" s="1" t="n">
+      <c r="Q122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>35</v>
@@ -3318,7 +4033,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>39</v>
@@ -3326,31 +4041,70 @@
       <c r="C124" s="1" t="n">
         <v>284853399</v>
       </c>
+      <c r="I124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O124" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P124" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH124" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>39</v>
@@ -3361,7 +4115,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>39</v>
@@ -3369,46 +4123,70 @@
       <c r="C126" s="1" t="n">
         <v>286109921</v>
       </c>
-      <c r="E126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH126" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>48</v>
@@ -3416,46 +4194,52 @@
       <c r="C127" s="1" t="n">
         <v>295015160</v>
       </c>
-      <c r="E127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I127" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O127" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P127" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>50</v>
@@ -3466,7 +4250,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>39</v>
@@ -3477,7 +4261,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>37</v>
@@ -3488,7 +4272,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>50</v>
@@ -3499,7 +4283,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>35</v>
@@ -3510,42 +4294,60 @@
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="G132" s="3"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="3"/>
+      <c r="Q132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
+      <c r="Y132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-      <c r="AF132" s="2"/>
-      <c r="AG132" s="3"/>
+      <c r="AE132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AH132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>39</v>
@@ -3556,7 +4358,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>37</v>
@@ -3567,7 +4369,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>48</v>
@@ -3578,7 +4380,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>39</v>
@@ -3589,7 +4391,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>39</v>
@@ -3600,7 +4402,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>45</v>
@@ -3611,7 +4413,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>41</v>
@@ -3619,10 +4421,37 @@
       <c r="C139" s="1" t="n">
         <v>293160295</v>
       </c>
+      <c r="P139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH139" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>39</v>
@@ -3630,46 +4459,70 @@
       <c r="C140" s="1" t="n">
         <v>285360124</v>
       </c>
-      <c r="E140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I140" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M140" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O140" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P140" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R140" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH140" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>50</v>
@@ -3677,43 +4530,61 @@
       <c r="C141" s="1" t="n">
         <v>325260486</v>
       </c>
-      <c r="F141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>45</v>
@@ -3724,7 +4595,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>35</v>
@@ -3751,6 +4622,52 @@
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3767,12 +4684,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH231"/>
+  <dimension ref="A1:CG231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L71" activeCellId="0" sqref="I71:L71"/>
+      <selection pane="bottomLeft" activeCell="K71" activeCellId="0" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3780,15 +4697,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="10" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="17" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="21" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="36" min="35" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="4" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="14" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="21" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="28" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="30" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="35" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,10 +4823,7 @@
       <c r="C2" s="1" t="n">
         <v>300362838</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,7 +4831,7 @@
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -4120,31 +5035,37 @@
       <c r="C21" s="1" t="n">
         <v>306150352</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1" t="n">
+      <c r="J21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,22 +5090,40 @@
       <c r="C23" s="1" t="n">
         <v>297621556</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="n">
+      <c r="J23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,37 +5170,58 @@
       <c r="C27" s="1" t="n">
         <v>305801384</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="J27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="n">
+      <c r="P27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4275,34 +5235,52 @@
       <c r="C28" s="1" t="n">
         <v>291209890</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="1" t="n">
+      <c r="Q28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,40 +5316,34 @@
       <c r="C31" s="1" t="n">
         <v>304866814</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="n">
+      <c r="Q31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,37 +5357,55 @@
       <c r="C32" s="1" t="n">
         <v>288353005</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="J32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="1" t="n">
+      <c r="P32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,13 +5419,34 @@
       <c r="C33" s="1" t="n">
         <v>287986489</v>
       </c>
-      <c r="M33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1" t="n">
+      <c r="J33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,6 +5471,12 @@
       <c r="C35" s="1" t="n">
         <v>294437452</v>
       </c>
+      <c r="L35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -4537,40 +5554,40 @@
       <c r="C42" s="1" t="n">
         <v>286049732</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S42" s="1" t="n">
+      <c r="Q42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,40 +5667,61 @@
       <c r="C49" s="1" t="n">
         <v>296838098</v>
       </c>
-      <c r="E49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S49" s="1" t="n">
+      <c r="Q49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,6 +5735,9 @@
       <c r="C50" s="1" t="n">
         <v>304289027</v>
       </c>
+      <c r="AF50" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
@@ -4708,34 +5749,52 @@
       <c r="C51" s="1" t="n">
         <v>295962968</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="1" t="n">
+      <c r="Q51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,19 +5863,16 @@
       <c r="C57" s="1" t="n">
         <v>290733480</v>
       </c>
-      <c r="F57" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" s="1" t="n">
+      <c r="P57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,16 +5897,10 @@
       <c r="C59" s="1" t="n">
         <v>294086803</v>
       </c>
-      <c r="F59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1" t="n">
+      <c r="J59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L59" s="1" t="n">
@@ -4859,16 +5909,40 @@
       <c r="M59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P59" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="T59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,25 +5956,49 @@
       <c r="C60" s="1" t="n">
         <v>293669155</v>
       </c>
-      <c r="E60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1" t="n">
+      <c r="J60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1" t="n">
+      <c r="P60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4914,16 +6012,43 @@
       <c r="C61" s="1" t="n">
         <v>294138170</v>
       </c>
-      <c r="E61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1" t="n">
+      <c r="P61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,31 +6095,34 @@
       <c r="C65" s="1" t="n">
         <v>306151197</v>
       </c>
-      <c r="E65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="1" t="n">
+      <c r="J65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5041,15 +6169,6 @@
       <c r="C69" s="1" t="n">
         <v>300369077</v>
       </c>
-      <c r="F69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -5072,12 +6191,6 @@
       <c r="C71" s="1" t="n">
         <v>284684813</v>
       </c>
-      <c r="G71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T71" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -5114,7 +6227,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>48</v>
@@ -5125,7 +6238,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>35</v>
@@ -5133,10 +6246,16 @@
       <c r="C76" s="1" t="n">
         <v>305889605</v>
       </c>
+      <c r="M76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>48</v>
@@ -5147,7 +6266,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>39</v>
@@ -5155,19 +6274,40 @@
       <c r="C78" s="1" t="n">
         <v>284925683</v>
       </c>
-      <c r="F78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1" t="n">
+      <c r="R78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>41</v>
@@ -5178,7 +6318,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>50</v>
@@ -5189,7 +6329,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>50</v>
@@ -5200,7 +6340,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>37</v>
@@ -5211,7 +6351,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>50</v>
@@ -5222,7 +6362,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>48</v>
@@ -5233,7 +6373,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>50</v>
@@ -5244,7 +6384,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>48</v>
@@ -5255,7 +6395,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>39</v>
@@ -5266,7 +6406,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>45</v>
@@ -5277,7 +6417,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>37</v>
@@ -5285,28 +6425,19 @@
       <c r="C89" s="1" t="n">
         <v>298838125</v>
       </c>
-      <c r="H89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T89" s="1" t="n">
+      <c r="R89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>41</v>
@@ -5314,37 +6445,49 @@
       <c r="C90" s="1" t="n">
         <v>290072883</v>
       </c>
-      <c r="F90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" s="1" t="n">
+      <c r="J90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P90" s="1" t="n">
+      <c r="R90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>48</v>
@@ -5352,40 +6495,10 @@
       <c r="C91" s="1" t="n">
         <v>300252730</v>
       </c>
-      <c r="E91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T91" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>35</v>
@@ -5393,10 +6506,16 @@
       <c r="C92" s="1" t="n">
         <v>297031724</v>
       </c>
+      <c r="S92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>39</v>
@@ -5407,7 +6526,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>45</v>
@@ -5418,7 +6537,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>41</v>
@@ -5429,7 +6548,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>35</v>
@@ -5440,7 +6559,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>35</v>
@@ -5451,7 +6570,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>50</v>
@@ -5462,7 +6581,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>35</v>
@@ -5470,46 +6589,52 @@
       <c r="C99" s="1" t="n">
         <v>298986752</v>
       </c>
-      <c r="E99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P99" s="1" t="n">
+      <c r="R99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T99" s="1" t="n">
+      <c r="W99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>45</v>
@@ -5520,7 +6645,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>37</v>
@@ -5528,10 +6653,13 @@
       <c r="C101" s="1" t="n">
         <v>301489769</v>
       </c>
+      <c r="CG101" s="1" t="n">
+        <v>2.22222222222222E+169</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>35</v>
@@ -5539,10 +6667,40 @@
       <c r="C102" s="1" t="n">
         <v>305302639</v>
       </c>
+      <c r="I102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>37</v>
@@ -5553,7 +6711,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>37</v>
@@ -5564,7 +6722,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>48</v>
@@ -5575,7 +6733,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>35</v>
@@ -5586,7 +6744,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>35</v>
@@ -5597,7 +6755,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>37</v>
@@ -5605,28 +6763,19 @@
       <c r="C108" s="1" t="n">
         <v>298838222</v>
       </c>
-      <c r="H108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T108" s="1" t="n">
+      <c r="R108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>41</v>
@@ -5637,7 +6786,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>50</v>
@@ -5645,34 +6794,46 @@
       <c r="C110" s="1" t="n">
         <v>289953944</v>
       </c>
-      <c r="G110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" s="1" t="n">
+      <c r="J110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>37</v>
@@ -5683,7 +6844,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>35</v>
@@ -5694,7 +6855,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>41</v>
@@ -5702,46 +6863,64 @@
       <c r="C113" s="1" t="n">
         <v>292633963</v>
       </c>
-      <c r="E113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H113" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O113" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P113" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R113" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>50</v>
@@ -5752,7 +6931,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>35</v>
@@ -5760,46 +6939,55 @@
       <c r="C115" s="1" t="n">
         <v>301633835</v>
       </c>
-      <c r="E115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L115" s="1" t="n">
+      <c r="J115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>41</v>
@@ -5807,10 +6995,19 @@
       <c r="C116" s="1" t="n">
         <v>292689675</v>
       </c>
+      <c r="L116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH116" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>48</v>
@@ -5821,7 +7018,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>37</v>
@@ -5832,7 +7029,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>35</v>
@@ -5843,7 +7040,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>50</v>
@@ -5854,7 +7051,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>45</v>
@@ -5865,7 +7062,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>45</v>
@@ -5873,22 +7070,37 @@
       <c r="C122" s="1" t="n">
         <v>292550553</v>
       </c>
-      <c r="F122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" s="1" t="n">
+      <c r="I122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>35</v>
@@ -5899,7 +7111,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>39</v>
@@ -5910,7 +7122,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>39</v>
@@ -5921,7 +7133,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>39</v>
@@ -5932,7 +7144,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>48</v>
@@ -5940,19 +7152,31 @@
       <c r="C127" s="1" t="n">
         <v>295015160</v>
       </c>
-      <c r="F127" s="1" t="n">
+      <c r="I127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T127" s="1" t="n">
+      <c r="W127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>50</v>
@@ -5963,7 +7187,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>39</v>
@@ -5974,7 +7198,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>37</v>
@@ -5985,7 +7209,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>50</v>
@@ -5996,7 +7220,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>35</v>
@@ -6007,7 +7231,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>39</v>
@@ -6018,7 +7242,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>37</v>
@@ -6029,7 +7253,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>48</v>
@@ -6040,7 +7264,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>39</v>
@@ -6051,7 +7275,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>39</v>
@@ -6062,7 +7286,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>45</v>
@@ -6070,46 +7294,58 @@
       <c r="C138" s="1" t="n">
         <v>291624650</v>
       </c>
-      <c r="E138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I138" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J138" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O138" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P138" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R138" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="S138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T138" s="1" t="n">
+      <c r="W138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>41</v>
@@ -6117,25 +7353,49 @@
       <c r="C139" s="1" t="n">
         <v>293160295</v>
       </c>
-      <c r="G139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" s="1" t="n">
+      <c r="I139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O139" s="1" t="n">
+      <c r="P139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>39</v>
@@ -6146,7 +7406,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>50</v>
@@ -6157,7 +7417,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>45</v>
@@ -6168,7 +7428,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>35</v>
